--- a/ResultadoEleicoesDistritos/VILA REAL_CHAVES.xlsx
+++ b/ResultadoEleicoesDistritos/VILA REAL_CHAVES.xlsx
@@ -597,64 +597,64 @@
         <v>12744</v>
       </c>
       <c r="H2" t="n">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="I2" t="n">
-        <v>1316</v>
+        <v>1300</v>
       </c>
       <c r="J2" t="n">
-        <v>5248</v>
+        <v>5407</v>
       </c>
       <c r="K2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" t="n">
-        <v>1410</v>
+        <v>1469</v>
       </c>
       <c r="M2" t="n">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="N2" t="n">
-        <v>972</v>
+        <v>956</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R2" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="S2" t="n">
-        <v>556</v>
+        <v>494</v>
       </c>
       <c r="T2" t="n">
-        <v>864</v>
+        <v>881</v>
       </c>
       <c r="U2" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="V2" t="n">
-        <v>8207</v>
+        <v>8139</v>
       </c>
       <c r="W2" t="n">
         <v>4</v>
       </c>
       <c r="X2" t="n">
-        <v>8137</v>
+        <v>8030</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Z2" t="n">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="AA2" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
